--- a/indicadores/tablas/pob/530205_sexo.xlsx
+++ b/indicadores/tablas/pob/530205_sexo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -24,6 +24,12 @@
     <t xml:space="preserve">Mujeres</t>
   </si>
   <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
@@ -70,9 +76,6 @@
   </si>
   <si>
     <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -119,10 +122,17 @@
 Los indicadores de trabajo y seguridad social del año 2020 se construyen con la encuesta presencial realizada hasta marzo de 2020 y posteriormente con la encuesta telefónica panel (siempre que la información haya sido incluida en el formulario). Para el 2021, se calculan a partir de la encuesta telefónica del primer semestre de 2021 y el formulario telefónico de modalidad panel del segundo semestre de 2021. En el segundo semestre de 2021 el quintil de ingresos del hogar corresponde a los ingresos declarados durante la implantación del panel en la encuesta presencial.</t>
   </si>
   <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">cita</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE</t>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE
+</t>
   </si>
   <si>
     <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
@@ -131,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -450,12 +460,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -473,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>754.3</v>
+        <v>1181</v>
       </c>
       <c r="C2" t="n">
-        <v>731.2</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="3">
@@ -484,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>672.6</v>
+        <v>913.6</v>
       </c>
       <c r="C3" t="n">
-        <v>639.4</v>
+        <v>853.6</v>
       </c>
     </row>
     <row r="4">
@@ -495,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>579</v>
+        <v>754.3</v>
       </c>
       <c r="C4" t="n">
-        <v>549</v>
+        <v>731.2</v>
       </c>
     </row>
     <row r="5">
@@ -506,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>496</v>
+        <v>672.6</v>
       </c>
       <c r="C5" t="n">
-        <v>476</v>
+        <v>639.4</v>
       </c>
     </row>
     <row r="6">
@@ -517,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>438</v>
+        <v>579</v>
       </c>
       <c r="C6" t="n">
-        <v>413</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7">
@@ -528,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>374</v>
+        <v>496</v>
       </c>
       <c r="C7" t="n">
-        <v>344</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8">
@@ -539,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>310</v>
+        <v>438</v>
       </c>
       <c r="C8" t="n">
-        <v>283</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>259</v>
+        <v>374</v>
       </c>
       <c r="C9" t="n">
-        <v>238</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>209</v>
+        <v>310</v>
       </c>
       <c r="C10" t="n">
-        <v>190</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11">
@@ -572,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="C11" t="n">
-        <v>158</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
@@ -583,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="C12" t="n">
-        <v>132</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13">
@@ -594,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="C13" t="n">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
@@ -605,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="C14" t="n">
-        <v>90.4</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
@@ -616,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>88.1</v>
+        <v>119</v>
       </c>
       <c r="C15" t="n">
-        <v>77.1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
@@ -627,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>71.4</v>
+        <v>105</v>
       </c>
       <c r="C16" t="n">
-        <v>64.4</v>
+        <v>90.4</v>
       </c>
     </row>
     <row r="17">
@@ -638,9 +648,31 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
+        <v>88.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>77.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>71.4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>64.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
         <v>59.8</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C19" t="n">
         <v>52</v>
       </c>
     </row>
@@ -651,91 +683,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
